--- a/api/src/data/resultats_EFREI PARIS.xlsx
+++ b/api/src/data/resultats_EFREI PARIS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <x:si>
     <x:t>Poule</x:t>
   </x:si>
@@ -60,10 +60,10 @@
     <x:t>M. Joué</x:t>
   </x:si>
   <x:si>
-    <x:t>BBME2A - BASKET BALL (NIVEAU 2 : GRANDES ECOLES - M)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10/11/2022</x:t>
+    <x:t>BBME2B - BASKET BALL (NIVEAU 2 : GRANDES ECOLES - M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16/11/2023</x:t>
   </x:si>
   <x:si>
     <x:t>14:00</x:t>
@@ -72,55 +72,46 @@
     <x:t>EFREI PARIS</x:t>
   </x:si>
   <x:si>
-    <x:t>ECE PARIS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>52</x:t>
-  </x:si>
-  <x:si>
-    <x:t>75</x:t>
+    <x:t>ESTP PARIS (2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
   </x:si>
   <x:si>
     <x:t>X</x:t>
   </x:si>
   <x:si>
-    <x:t>17/11/2022</x:t>
+    <x:t>23/11/2023</x:t>
   </x:si>
   <x:si>
     <x:t>13:30</x:t>
   </x:si>
   <x:si>
-    <x:t>ESCP BUSINESS SCHOOL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24/11/2022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PSB PARIS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>05/01/2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18:00</x:t>
+    <x:t>IMCP Sport</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30/11/2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16:15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EPF CACHAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18/01/2024</x:t>
   </x:si>
   <x:si>
     <x:t>ESIEE PARIS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>78</x:t>
-  </x:si>
-  <x:si>
-    <x:t>66</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -505,9 +496,9 @@
   <x:cols>
     <x:col min="17" max="16384" width="9.140625" style="1" customWidth="1"/>
     <x:col min="1" max="1" width="16.010625" style="1" customWidth="1"/>
-    <x:col min="2" max="3" width="12.710625" style="1" customWidth="1"/>
-    <x:col min="4" max="4" width="16.010625" style="1" customWidth="1"/>
-    <x:col min="5" max="16" width="12.710625" style="1" customWidth="1"/>
+    <x:col min="2" max="4" width="12.710625" style="1" customWidth="1"/>
+    <x:col min="5" max="5" width="14.900625" style="1" customWidth="1"/>
+    <x:col min="6" max="16" width="12.710625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:16">
@@ -580,13 +571,19 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="G2" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H2" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="H2" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
       <x:c r="I2" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="M2" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="O2" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
       <x:c r="P2" s="1" t="s">
         <x:v>21</x:v>
@@ -609,16 +606,16 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F3" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G3" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H3" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="H3" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
       <x:c r="I3" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="P3" s="1" t="s">
         <x:v>21</x:v>
@@ -629,31 +626,28 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C4" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D4" s="1" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="E4" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F4" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G4" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H4" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I4" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="P4" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:16" customFormat="1" ht="15" customHeight="1">
@@ -664,28 +658,25 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D5" s="1" t="s">
         <x:v>31</x:v>
-      </x:c>
-      <x:c r="D5" s="1" t="s">
-        <x:v>32</x:v>
       </x:c>
       <x:c r="E5" s="1" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="F5" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G5" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H5" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I5" s="1" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="P5" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:16" customFormat="1" ht="15" customHeight="1"/>

--- a/api/src/data/resultats_EFREI PARIS.xlsx
+++ b/api/src/data/resultats_EFREI PARIS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <x:si>
     <x:t>Poule</x:t>
   </x:si>
@@ -99,6 +99,21 @@
     <x:t>48</x:t>
   </x:si>
   <x:si>
+    <x:t>BBME3C - BASKET BALL (NIVEAU 3 : GRANDES ECOLES - M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EN VETERINAIRE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58</x:t>
+  </x:si>
+  <x:si>
     <x:t>30/11/2023</x:t>
   </x:si>
   <x:si>
@@ -108,10 +123,70 @@
     <x:t>EPF CACHAN</x:t>
   </x:si>
   <x:si>
+    <x:t>56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07/12/2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ICAM GRAND PARIS SUD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11/12/2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SORBONNE UNIVERSITE LETTRES (3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21/12/2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ESIEA PARIS</x:t>
+  </x:si>
+  <x:si>
     <x:t>18/01/2024</x:t>
   </x:si>
   <x:si>
     <x:t>ESIEE PARIS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25/01/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INSTITUT MINES TELECOM EVRY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/02/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EPISPORT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08/02/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ESO SPORTING CLUB</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -488,7 +563,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:P10"/>
+  <x:dimension ref="A1:P17"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -496,8 +571,8 @@
   <x:cols>
     <x:col min="17" max="16384" width="9.140625" style="1" customWidth="1"/>
     <x:col min="1" max="1" width="16.010625" style="1" customWidth="1"/>
-    <x:col min="2" max="4" width="12.710625" style="1" customWidth="1"/>
-    <x:col min="5" max="5" width="14.900625" style="1" customWidth="1"/>
+    <x:col min="2" max="3" width="12.710625" style="1" customWidth="1"/>
+    <x:col min="4" max="5" width="16.010625" style="1" customWidth="1"/>
     <x:col min="6" max="16" width="12.710625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
@@ -623,31 +698,34 @@
     </x:row>
     <x:row r="4" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A4" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C4" s="1" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="D4" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E4" s="1" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="E4" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
       <x:c r="F4" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G4" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H4" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I4" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P4" s="1" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:16" customFormat="1" ht="15" customHeight="1">
@@ -655,35 +733,262 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D5" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E5" s="1" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="F5" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="G5" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="H5" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="I5" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="P5" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:16" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A6" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B6" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C6" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="D5" s="1" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="E5" s="1" t="s">
+      <x:c r="D6" s="1" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="F5" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="G5" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H5" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="I5" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:16" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="7" spans="1:16" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="8" spans="1:16" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="9" spans="1:16" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="10" spans="1:16" customFormat="1" ht="15" customHeight="1"/>
+      <x:c r="E6" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F6" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G6" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H6" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I6" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L6" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="N6" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="P6" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:16" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A7" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B7" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C7" s="1" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D7" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="E7" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F7" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="G7" s="1" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H7" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="I7" s="1" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="P7" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:16" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A8" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B8" s="1" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C8" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D8" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E8" s="1" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="F8" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G8" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H8" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="I8" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="M8" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="P8" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:16" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A9" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B9" s="1" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C9" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D9" s="1" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E9" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F9" s="1" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="G9" s="1" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="H9" s="1" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="I9" s="1" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="P9" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:16" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A10" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B10" s="1" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C10" s="1" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D10" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E10" s="1" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="F10" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G10" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H10" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I10" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:16" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A11" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B11" s="1" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C11" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D11" s="1" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="E11" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F11" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G11" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H11" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I11" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:16" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A12" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B12" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C12" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D12" s="1" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="E12" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F12" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G12" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H12" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I12" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:16" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="14" spans="1:16" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="15" spans="1:16" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="16" spans="1:16" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="17" spans="1:16" customFormat="1" ht="15" customHeight="1"/>
   </x:sheetData>
   <x:autoFilter ref="A1:P1"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
